--- a/KarthikBallary/Supply Chain Management/Data/Config.xlsx
+++ b/KarthikBallary/Supply Chain Management/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -30,7 +30,7 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>SupplierQueue</t>
+    <t>ABC</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -126,16 +126,31 @@
     <t>Data\Input\MailBody.txt</t>
   </si>
   <si>
-    <t>Port Number</t>
-  </si>
-  <si>
-    <t>Server Name</t>
+    <t>PortNumber_Assetname</t>
+  </si>
+  <si>
+    <t>Gmail_PortNumber</t>
+  </si>
+  <si>
+    <t>PortServer_AssetName</t>
+  </si>
+  <si>
+    <t>Gmail_ServerName</t>
   </si>
   <si>
     <t>smtp.gmail.com</t>
   </si>
   <si>
     <t>Credential Name</t>
+  </si>
+  <si>
+    <t>Gmail_Credentials</t>
+  </si>
+  <si>
+    <t>QueueAssetName</t>
+  </si>
+  <si>
+    <t>SupplyChainQueue</t>
   </si>
   <si>
     <t>MaxRetryNumber</t>
@@ -212,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -243,34 +258,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,15 +271,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,7 +294,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,20 +310,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +341,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -382,6 +389,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,7 +407,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,19 +509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,85 +533,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,13 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,43 +575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,32 +601,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,18 +631,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,7 +655,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,148 +701,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
@@ -1337,28 +1352,44 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:2">
+    <row r="16" ht="14.25" customHeight="1" spans="1:3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
         <v>587</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:2">
+    <row r="17" ht="14.25" customHeight="1" spans="1:3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:1">
+    <row r="18" ht="14.25" customHeight="1" spans="1:2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1" spans="1:2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
     <row r="22" ht="14.25" customHeight="1"/>
@@ -2400,81 +2431,81 @@
     </row>
     <row r="2" ht="29" spans="1:3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
@@ -3482,13 +3513,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
